--- a/tables/STable2_model_symbols.xlsx
+++ b/tables/STable2_model_symbols.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/productivity/models/spmodel_tb1/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/productivity/models/sst_productivity/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62781CE7-BA33-3A40-9940-D4E7F6DD41E9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="23040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="23040" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
@@ -257,6 +259,342 @@
   </si>
   <si>
     <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intrinsic rate of growth for stock </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Carrying capacity for stock </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Influence of SST on productivity for stock </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Standard deviation of the distribution of SST influences (θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P,i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mean of the distribution of SST influences (θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G,j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <t>Group (taxonomic or geographic)</t>
+  </si>
+  <si>
+    <r>
+      <t>Mean of the distribution of SST influences (θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) for group</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Standard deviation of the group-specific distributions of SST influences (θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Shape parameter: fixed at 1.00, 0.55, 0.20, or 0.01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Standard deviation of the residual process variability for stock </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">First-order (AR1) autocorrelation coefficient for stock </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>ε</t>
     </r>
     <r>
@@ -267,333 +605,46 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Intrinsic rate of growth for stock </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Carrying capacity for stock </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Influence of SST on productivity for stock </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>μ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SST</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Standard deviation of the distribution of SST influences (θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P,i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Mean of the distribution of SST influences (θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <r>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>μ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G,j</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>σ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Group (taxonomic or geographic) for stock </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-  </si>
-  <si>
-    <t>Group (taxonomic or geographic)</t>
-  </si>
-  <si>
-    <r>
-      <t>Mean of the distribution of SST influences (θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) for group</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> j</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Standard deviation of the group-specific distributions of SST influences (θ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>Shape parameter: fixed at 1.00, 0.55, 0.20, or 0.01</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Standard deviation of the residual process variability for stock </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
+      <t>i,t</t>
     </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Residual process variability for stock </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in year </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Group (taxonomic, geographic, or stock assessment model) for stock </t>
     </r>
     <r>
       <rPr>
@@ -610,8 +661,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -651,6 +702,22 @@
       <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -672,16 +739,18 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -689,7 +758,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1001,19 +1072,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" zoomScalePageLayoutView="119" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="62.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="17" thickBot="1">
+    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19" thickTop="1">
+    <row r="3" spans="1:3" ht="19" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1117,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1057,7 +1128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1068,158 +1139,169 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18">
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18">
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18">
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18">
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
